--- a/Marketplaces/Amazon/tabela_amz.xlsx
+++ b/Marketplaces/Amazon/tabela_amz.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">São Paulo(São Paulo Interior) </t>
+          <t xml:space="preserve">São Paulo(São Paulo Interior)) </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio de Janeiro(Rio de Janeiro Capital) </t>
+          <t xml:space="preserve">Rio de Janeiro(Rio de Janeiro Capital)) </t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio de Janeiro(Rio de Janeiro Interior) </t>
+          <t xml:space="preserve">Rio de Janeiro(Rio de Janeiro Interior)) </t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espírito Santo(Espírito Santo Capital) </t>
+          <t xml:space="preserve">Espírito Santo(Espírito Santo Capital)) </t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espírito Santo(Espírito Santo Interior) </t>
+          <t xml:space="preserve">Espírito Santo(Espírito Santo Interior)) </t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minas Gerais(Minas Gerais Capital) </t>
+          <t xml:space="preserve">Minas Gerais(Minas Gerais Capital)) </t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minas Gerais(Minas Gerais Interior) </t>
+          <t xml:space="preserve">Minas Gerais(Minas Gerais Interior)) </t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bahia(Bahia Capital) </t>
+          <t xml:space="preserve">Bahia(Bahia Capital)) </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bahia(Bahia Interior) </t>
+          <t xml:space="preserve">Bahia(Bahia Interior)) </t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sergipe(Sergipe Capital) </t>
+          <t xml:space="preserve">Sergipe(Sergipe Capital)) </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sergipe(Sergipe Interior) </t>
+          <t xml:space="preserve">Sergipe(Sergipe Interior)) </t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -656,7 +656,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pernambuco(Pernambuco Capital) </t>
+          <t xml:space="preserve">Pernambuco(Pernambuco Capital)) </t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -674,7 +674,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pernambuco(Pernambuco Interior) </t>
+          <t xml:space="preserve">Pernambuco(Pernambuco Interior)) </t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -692,7 +692,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alagoas(Alagoas Capital) </t>
+          <t xml:space="preserve">Alagoas(Alagoas Capital)) </t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -710,7 +710,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alagoas(Alagoas Interior) </t>
+          <t xml:space="preserve">Alagoas(Alagoas Interior)) </t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraíba(Paraíba Capital) </t>
+          <t xml:space="preserve">Paraíba(Paraíba Capital)) </t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -746,7 +746,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraíba(Paraíba Interior) </t>
+          <t xml:space="preserve">Paraíba(Paraíba Interior)) </t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -764,7 +764,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Grande do Norte(Rio Grande do Norte Capital) </t>
+          <t xml:space="preserve">Rio Grande do Norte(Rio Grande do Norte Capital)) </t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -782,7 +782,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Grande do Norte(Rio Grande do Norte Interior) </t>
+          <t xml:space="preserve">Rio Grande do Norte(Rio Grande do Norte Interior)) </t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -800,7 +800,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceará(Ceará Capital) </t>
+          <t xml:space="preserve">Ceará(Ceará Capital)) </t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -818,7 +818,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceará(Ceará Interior) </t>
+          <t xml:space="preserve">Ceará(Ceará Interior)) </t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -836,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Piauí(Piauí Capital) </t>
+          <t xml:space="preserve">Piauí(Piauí Capital)) </t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -854,7 +854,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Piauí(Piauí Interior) </t>
+          <t xml:space="preserve">Piauí(Piauí Interior)) </t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -872,7 +872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maranhão(Maranhão Capital) </t>
+          <t xml:space="preserve">Maranhão(Maranhão Capital)) </t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maranhão(Maranhão Interior) </t>
+          <t xml:space="preserve">Maranhão(Maranhão Interior)) </t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -908,7 +908,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pará(Pará Capital) </t>
+          <t xml:space="preserve">Pará(Pará Capital)) </t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -926,7 +926,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pará(Pará Interior) </t>
+          <t xml:space="preserve">Pará(Pará Interior)) </t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -944,7 +944,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amapá(Amapá Capital) </t>
+          <t xml:space="preserve">Amapá(Amapá Capital)) </t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amapá(Amapá Interior) </t>
+          <t xml:space="preserve">Amapá(Amapá Interior)) </t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -980,7 +980,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazonas(Amazonas Capital) </t>
+          <t xml:space="preserve">Amazonas(Amazonas Capital)) </t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -998,7 +998,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazonas(Amazonas Interior) </t>
+          <t xml:space="preserve">Amazonas(Amazonas Interior)) </t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1016,7 +1016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roraima(Roraima Capital) </t>
+          <t xml:space="preserve">Roraima(Roraima Capital)) </t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roraima(Roraima Interior) </t>
+          <t xml:space="preserve">Roraima(Roraima Interior)) </t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1052,7 +1052,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acre(Acre Capital) </t>
+          <t xml:space="preserve">Acre(Acre Capital)) </t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1070,7 +1070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acre(Acre Interior) </t>
+          <t xml:space="preserve">Acre(Acre Interior)) </t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1088,7 +1088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distrito Federal(Distrito Federal Capital) </t>
+          <t xml:space="preserve">Distrito Federal(Distrito Federal Capital)) </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1106,7 +1106,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goiás(Goiás Interior) </t>
+          <t xml:space="preserve">Goiás(Goiás Interior)) </t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1124,7 +1124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goiás(Goiás Capital) </t>
+          <t xml:space="preserve">Goiás(Goiás Capital)) </t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rondônia(Rondônia Capital) </t>
+          <t xml:space="preserve">Rondônia(Rondônia Capital)) </t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1160,7 +1160,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rondônia(Rondônia Interior) </t>
+          <t xml:space="preserve">Rondônia(Rondônia Interior)) </t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1178,7 +1178,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tocantins(Tocantins Capital) </t>
+          <t xml:space="preserve">Tocantins(Tocantins Capital)) </t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1196,7 +1196,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tocantins(Tocantins Interior) </t>
+          <t xml:space="preserve">Tocantins(Tocantins Interior)) </t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1214,7 +1214,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mato Grosso(Mato Grosso Capital) </t>
+          <t xml:space="preserve">Mato Grosso(Mato Grosso Capital)) </t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1232,7 +1232,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mato Grosso(Mato Grosso Interior) </t>
+          <t xml:space="preserve">Mato Grosso(Mato Grosso Interior)) </t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1250,7 +1250,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mato Grosso do Sul(Mato Grosso do Sul Capital) </t>
+          <t xml:space="preserve">Mato Grosso do Sul(Mato Grosso do Sul Capital)) </t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1268,7 +1268,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mato Grosso do Sul(Mato Grosso do Sul Interior) </t>
+          <t xml:space="preserve">Mato Grosso do Sul(Mato Grosso do Sul Interior)) </t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1286,7 +1286,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraná(Paraná Capital) </t>
+          <t xml:space="preserve">Paraná(Paraná Capital)) </t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1304,7 +1304,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraná(Paraná Interior) </t>
+          <t xml:space="preserve">Paraná(Paraná Interior)) </t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1322,7 +1322,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santa Catarina(Santa Catarina Capital) </t>
+          <t xml:space="preserve">Santa Catarina(Santa Catarina Capital)) </t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1340,7 +1340,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santa Catarina(Santa Catarina Interior) </t>
+          <t xml:space="preserve">Santa Catarina(Santa Catarina Interior)) </t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1358,7 +1358,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Grande do Sul(Rio Grande do Sul Capital) </t>
+          <t xml:space="preserve">Rio Grande do Sul(Rio Grande do Sul Capital)) </t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1376,7 +1376,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Grande do Sul(Rio Grande do Sul Interior) </t>
+          <t xml:space="preserve">Rio Grande do Sul(Rio Grande do Sul Interior)) </t>
         </is>
       </c>
       <c r="B53" t="n">
